--- a/dcomtestcasegeneration/Database/Template.xlsx
+++ b/dcomtestcasegeneration/Database/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C770B13A-CF6F-4206-8BE4-8E4B6978DCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576587AE-1CF9-46FE-B1A2-2A91B760DB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="3615" windowWidth="17475" windowHeight="13185" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13875" yWindow="3015" windowWidth="21600" windowHeight="13185" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="199">
   <si>
     <t>Sub_function</t>
   </si>
@@ -658,6 +658,12 @@
   </si>
   <si>
     <t>Private CAN DBC</t>
+  </si>
+  <si>
+    <t>Template Path</t>
+  </si>
+  <si>
+    <t>D:\HuyNA_repo\Database\Template.xlsx</t>
   </si>
 </sst>
 </file>
@@ -10786,10 +10792,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11104,25 +11110,25 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+    <row r="52" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>30</v>
@@ -11130,7 +11136,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>30</v>
@@ -11138,7 +11144,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>30</v>
@@ -11146,7 +11152,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>30</v>
@@ -11154,7 +11160,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>30</v>
@@ -11162,7 +11168,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>30</v>
@@ -11170,7 +11176,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>30</v>
@@ -11178,7 +11184,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>30</v>
@@ -11186,7 +11192,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>30</v>
@@ -11194,7 +11200,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>30</v>
@@ -11202,9 +11208,17 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -19639,7 +19653,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
